--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -8,29 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoal_000\Documents\GitHub\altonbjj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2932A3A-A420-4CF0-A21C-358446B5FE27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED3AC92-5DF6-45F0-91C9-EA147E6160EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4F1D2FA7-6FEE-4329-AE89-E8B36769511D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4F1D2FA7-6FEE-4329-AE89-E8B36769511D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Monday</t>
   </si>
@@ -51,46 +46,6 @@
   </si>
   <si>
     <t>Sunday</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7-8:30 PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Advanced BJJ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7-8:30 PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Advanced BJJ</t>
-    </r>
   </si>
   <si>
     <r>
@@ -145,6 +100,28 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">6:30-7 PM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Self Defence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>7-8:30 PM</t>
     </r>
     <r>
@@ -155,7 +132,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 
-No Gi BJJ</t>
+No Gi</t>
     </r>
   </si>
   <si>
@@ -163,20 +140,85 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">7-8 PM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Beginner / Fundamental BJJ</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7-8:30 PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Advanced (Gi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7-8:30 PM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advanced (Gi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6-7:30 PM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Open Mat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6-7 PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Beginner / Fundamentals</t>
     </r>
   </si>
   <si>
@@ -198,7 +240,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Beginner / Fundamental BJJ</t>
+      <t>Beginner / Fundamentals</t>
     </r>
   </si>
   <si>
@@ -210,29 +252,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>6-7 PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Beginner / Fundamental BJJ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">11 AM - 12:30 PM 
+      <t xml:space="preserve">7-8 PM
 </t>
     </r>
     <r>
@@ -242,30 +262,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>No Gi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">6:30-7 PM
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Self Defence</t>
-    </r>
+      <t>Beginner / Fundamentals</t>
+    </r>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -428,9 +429,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,6 +460,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570B9C71-AB7B-4C4C-A8BD-918184F7A32B}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,25 +818,25 @@
     <row r="2" spans="2:10" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -849,7 +850,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,48 +861,53 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
